--- a/templates/subject-template.xlsx
+++ b/templates/subject-template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Koulu\Inssityö\Sandbox\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F99CE67A-D7C9-4ECE-8AAC-5D537E68E640}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBBF8CEF-233C-4A32-97DD-C8B05C7305B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2775" yWindow="1065" windowWidth="22965" windowHeight="13260" xr2:uid="{C4A58839-FC71-4B02-A9E3-FC4FA5EF10F3}"/>
+    <workbookView xWindow="9615" yWindow="690" windowWidth="18015" windowHeight="13155" xr2:uid="{C4A58839-FC71-4B02-A9E3-FC4FA5EF10F3}"/>
   </bookViews>
   <sheets>
     <sheet name="Example Test-1" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="54">
   <si>
     <t>Load-1</t>
   </si>
@@ -363,6 +363,18 @@
   </si>
   <si>
     <t xml:space="preserve">This template can be used to import test(s) for a single subject. The amount of tests is unlimited. Multiple tests can be imported by creating separate sheet for each test. </t>
+  </si>
+  <si>
+    <t>36.6</t>
+  </si>
+  <si>
+    <t>37.2</t>
+  </si>
+  <si>
+    <t>37.1</t>
+  </si>
+  <si>
+    <t>37.3</t>
   </si>
 </sst>
 </file>
@@ -475,7 +487,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -519,6 +531,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -838,7 +853,7 @@
   <dimension ref="A1:M28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1287,17 +1302,31 @@
       <c r="A22" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
+      <c r="B22" s="10">
+        <v>7.5</v>
+      </c>
+      <c r="C22" s="10">
+        <v>7.4</v>
+      </c>
+      <c r="D22" s="10">
+        <v>7.3</v>
+      </c>
+      <c r="E22" s="10">
+        <v>7.2</v>
+      </c>
+      <c r="F22" s="18">
+        <v>7.1</v>
+      </c>
+      <c r="G22" s="18">
+        <v>7</v>
+      </c>
       <c r="H22" s="8"/>
       <c r="I22" s="8"/>
       <c r="J22" s="8"/>
       <c r="K22" s="8"/>
-      <c r="L22" s="8"/>
+      <c r="L22" s="18">
+        <v>6.9</v>
+      </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
@@ -1358,7 +1387,7 @@
   <dimension ref="A1:S29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1817,17 +1846,27 @@
       <c r="A21" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
+      <c r="B21" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>53</v>
+      </c>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c r="H21" s="8"/>
       <c r="I21" s="8"/>
       <c r="J21" s="8"/>
       <c r="K21" s="8"/>
-      <c r="L21" s="8"/>
+      <c r="L21" s="8">
+        <v>38</v>
+      </c>
       <c r="M21" s="9" t="s">
         <v>30</v>
       </c>
